--- a/Planilla de Requerimientos Arreglada.xlsx
+++ b/Planilla de Requerimientos Arreglada.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristian\Documents\GitHub\Ingenieria-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4F504-CF91-4C09-8498-9C4681F13A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD53BA-FC5D-4195-B083-35D2E7D13816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
+    <sheet name="GuiasDeUso" sheetId="1" r:id="rId1"/>
     <sheet name="Requerimientos Bajo Nivel" sheetId="2" r:id="rId2"/>
     <sheet name="Requerimientos Alto Nivel" sheetId="4" r:id="rId3"/>
     <sheet name="Lista" sheetId="3" r:id="rId4"/>
@@ -28,24 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="168">
   <si>
     <t>Columna</t>
   </si>
   <si>
-    <t>Instrucciones</t>
-  </si>
-  <si>
     <t>[R-N°]</t>
   </si>
   <si>
-    <t>Código de identificación de mayor nivel definido para el requisito. Puede definirse con números, por ejemplo 001, 002, 003, y así sucesivamente.</t>
-  </si>
-  <si>
     <t>[Nombre del Requerimiento]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El nombre corto que describe a la funcionalidad </t>
   </si>
   <si>
     <t>Tipo Requerimiento
@@ -58,19 +49,10 @@
     <t>Actores y Roles Relacionados</t>
   </si>
   <si>
-    <t>Se identifica al Actor que como Usuario se relaciona al requerimiento definido. (Cliente, Usuario, Preveedor) Ej. Usuario/Colaborador Bonificaciones.</t>
-  </si>
-  <si>
     <t>[Descripción corta del requerimiento]</t>
   </si>
   <si>
-    <t xml:space="preserve">Se proporciona una descripción de que comprende o en qué consiste el requisito. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Estado </t>
-  </si>
-  <si>
-    <t>Puede ser solicitado, aprobado, asignado, completado, cancelado, diferido, aceptado, entre otros.</t>
   </si>
   <si>
     <t>Tipo Requerimiento</t>
@@ -510,13 +492,74 @@
   <si>
     <t xml:space="preserve">El sistema debe ofrecer una opción de autenticación 
 de dos factores basada en código OTP enviado a un número de teléfono o correo electrónico verificado. </t>
+  </si>
+  <si>
+    <t>Prioridad Sugerida</t>
+  </si>
+  <si>
+    <t>Criterios de Aceptacion</t>
+  </si>
+  <si>
+    <t>Se identifica al actor o rol de usuario que interactúa directamente con el requerimiento.</t>
+  </si>
+  <si>
+    <t>Se proporciona una descripción clara y concisa que detalla el alcance y la naturaleza del requerimiento.</t>
+  </si>
+  <si>
+    <t>Indica la fase actual del requerimiento dentro del ciclo de vida del proyecto. Refleja su progreso desde la concepción hasta la implementación y validación. Ejemplos comunes de estados incluyen: Propuesto, Aprobado, En Desarrollo, En Prueba, Completado, Aceptado, Cancelado, Diferido.</t>
+  </si>
+  <si>
+    <t>Los Criterios de Aceptación son las condiciones objetivas y medibles que el sistema debe cumplir para que un requerimiento se considere satisfecho, validado y aceptado. Actúan como la base para las pruebas de software y determinan si una funcionalidad o característica ha sido implementada correctamente. Cada criterio debe ser claro, unívoco y verificable.</t>
+  </si>
+  <si>
+    <t>Significado</t>
+  </si>
+  <si>
+    <t>La Prioridad Sugerida clasifica la importancia relativa de cada requerimiento para el éxito del proyecto. Esta clasificación orienta al equipo de desarrollo sobre el orden en que deben abordarse las funcionalidades y características, especialmente en escenarios con recursos o tiempo limitados.</t>
+  </si>
+  <si>
+    <t>Este campo contiene el título o nombre completo y descriptivo del requerimiento. Su propósito es proporcionar una identificación rápida y clara de la funcionalidad o característica que se está detallando</t>
+  </si>
+  <si>
+    <t>Para Requerimientos Funcionales (RFs): Se utiliza el código RF seguido de una secuencia numérica de tres dígitos, comenzando desde 001 en adelante (ej., RF.001, RF.002).
+Para Requerimientos No Funcionales (RNFs): Se utiliza el código RNF seguido de una secuencia numérica de tres dígitos, comenzando desde 001 en adelante (ej., RNF.001, RNF.002)."</t>
+  </si>
+  <si>
+    <t>Guia De Uso de Requerimientos de Bajo Nivel</t>
+  </si>
+  <si>
+    <t>Guia De Uso de Requerimientos de Alto Nivel (IEEE830)</t>
+  </si>
+  <si>
+    <t>Se proporciona una descripción clara y concisa que detalla el alcance y la naturaleza del Modulo.</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>La Prioridad nos indica qué tan crucial es este módulo para el éxito general del sistema. Es como una brújula que guía al equipo de desarrollo para saber qué conjuntos de funcionalidades (módulos) deben construirse primero, asegurando que lo más importante y esencial se entregue a tiempo, especialmente si tenemos plazos ajustados o recursos específicos.</t>
+  </si>
+  <si>
+    <t>Los Criterios de Aceptación son los puntos clave y medibles que nos dicen cuándo una función o característica del sistema está realmente terminada y funciona como esperamos. Es como una lista de verificación: si el sistema cumple con cada punto de esta lista, sabemos que lo que pedimos ha sido construido correctamente y podemos aceptarlo. Son la base para asegurarnos que el sistema entregue lo que se prometió.</t>
+  </si>
+  <si>
+    <t>Identifica los roles de usuario o tipos de personal que interactuarán directamente con las funcionalidades de este módulo.</t>
+  </si>
+  <si>
+    <t>Lista los identificadores únicos (ID) de los requerimientos funcionales de la planilla de Bajo nivel, que pertenecen y son soportados por este módulo de alto nivel. Esto permite una trazabilidad directa entre las funcionalidades generales del módulo y sus implementaciones específicas.</t>
+  </si>
+  <si>
+    <t>El título o nombre descriptivo del módulo principal del sistema. Este nombre agrupa un conjunto lógico de funcionalidades relacionadas, ofreciendo una visión clara de su propósito general.</t>
+  </si>
+  <si>
+    <t>ID del Módulo: Es el identificador único para cada módulo del sistema. Se utiliza el código MDL seguido de una secuencia numérica de tres dígitos, comenzando desde 001 en adelante.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -621,6 +664,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -660,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -856,16 +924,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,16 +982,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,9 +1055,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1149,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1280,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B999"/>
+  <dimension ref="A1:B995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1294,88 +1435,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="76"/>
+      <c r="B2" s="80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B6" s="78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B7" s="79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B8" s="77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B14" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1559,2353 +1785,2349 @@
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+    </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="6"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="6"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="6"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="6"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="6"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="6"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="6"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="6"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="6"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="6"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="6"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="6"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="6"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="6"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="6"/>
+      <c r="B270" s="5"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="6"/>
+      <c r="B271" s="5"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="6"/>
+      <c r="B272" s="5"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="6"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="6"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="6"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="6"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="6"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="6"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="6"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="6"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="6"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="6"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="6"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="6"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="6"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="6"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="6"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="6"/>
+      <c r="B288" s="5"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="6"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="6"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="6"/>
+      <c r="B291" s="5"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="6"/>
+      <c r="B292" s="5"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="6"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="6"/>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="6"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="6"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="6"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="6"/>
+      <c r="B298" s="5"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="6"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="6"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="6"/>
+      <c r="B301" s="5"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="6"/>
+      <c r="B302" s="5"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="6"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="6"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="6"/>
+      <c r="B305" s="5"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="6"/>
+      <c r="B306" s="5"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="6"/>
+      <c r="B307" s="5"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="6"/>
+      <c r="B308" s="5"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="6"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="6"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="6"/>
+      <c r="B311" s="5"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="6"/>
+      <c r="B312" s="5"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="6"/>
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="6"/>
+      <c r="B314" s="5"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="6"/>
+      <c r="B315" s="5"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="6"/>
+      <c r="B316" s="5"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="6"/>
+      <c r="B317" s="5"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="6"/>
+      <c r="B318" s="5"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="6"/>
+      <c r="B319" s="5"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="6"/>
+      <c r="B320" s="5"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="6"/>
+      <c r="B321" s="5"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="6"/>
+      <c r="B322" s="5"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="6"/>
+      <c r="B323" s="5"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="6"/>
+      <c r="B324" s="5"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="6"/>
+      <c r="B325" s="5"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="6"/>
+      <c r="B326" s="5"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="6"/>
+      <c r="B327" s="5"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="6"/>
+      <c r="B328" s="5"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="6"/>
+      <c r="B329" s="5"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="6"/>
+      <c r="B330" s="5"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="6"/>
+      <c r="B331" s="5"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="6"/>
+      <c r="B332" s="5"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="6"/>
+      <c r="B333" s="5"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="6"/>
+      <c r="B334" s="5"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="6"/>
+      <c r="B335" s="5"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="6"/>
+      <c r="B336" s="5"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="6"/>
+      <c r="B337" s="5"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="6"/>
+      <c r="B338" s="5"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="6"/>
+      <c r="B339" s="5"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="6"/>
+      <c r="B340" s="5"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="6"/>
+      <c r="B341" s="5"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="6"/>
+      <c r="B342" s="5"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="6"/>
+      <c r="B343" s="5"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="6"/>
+      <c r="B344" s="5"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="6"/>
+      <c r="B345" s="5"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="6"/>
+      <c r="B346" s="5"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="6"/>
+      <c r="B347" s="5"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="6"/>
+      <c r="B348" s="5"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="6"/>
+      <c r="B349" s="5"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="6"/>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="6"/>
+      <c r="B351" s="5"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="6"/>
+      <c r="B352" s="5"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="6"/>
+      <c r="B353" s="5"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="6"/>
+      <c r="B354" s="5"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="6"/>
+      <c r="B355" s="5"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="6"/>
+      <c r="B356" s="5"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="6"/>
+      <c r="B357" s="5"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="6"/>
+      <c r="B358" s="5"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="6"/>
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="6"/>
+      <c r="B360" s="5"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="6"/>
+      <c r="B361" s="5"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="6"/>
+      <c r="B362" s="5"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="6"/>
+      <c r="B363" s="5"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="6"/>
+      <c r="B364" s="5"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="6"/>
+      <c r="B365" s="5"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="6"/>
+      <c r="B366" s="5"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="6"/>
+      <c r="B367" s="5"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="6"/>
+      <c r="B368" s="5"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="6"/>
+      <c r="B369" s="5"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="6"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="6"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="6"/>
+      <c r="B372" s="5"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="6"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="6"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="6"/>
+      <c r="B375" s="5"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="6"/>
+      <c r="B376" s="5"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="6"/>
+      <c r="B377" s="5"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="6"/>
+      <c r="B378" s="5"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="6"/>
+      <c r="B379" s="5"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="6"/>
+      <c r="B380" s="5"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="6"/>
+      <c r="B381" s="5"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="6"/>
+      <c r="B382" s="5"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="6"/>
+      <c r="B383" s="5"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="6"/>
+      <c r="B384" s="5"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="6"/>
+      <c r="B385" s="5"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="6"/>
+      <c r="B386" s="5"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="6"/>
+      <c r="B387" s="5"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="6"/>
+      <c r="B388" s="5"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="6"/>
+      <c r="B389" s="5"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="6"/>
+      <c r="B390" s="5"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="6"/>
+      <c r="B391" s="5"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="6"/>
+      <c r="B392" s="5"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="6"/>
+      <c r="B393" s="5"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="6"/>
+      <c r="B394" s="5"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="6"/>
+      <c r="B395" s="5"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="6"/>
+      <c r="B396" s="5"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="6"/>
+      <c r="B397" s="5"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="6"/>
+      <c r="B398" s="5"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="6"/>
+      <c r="B399" s="5"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="6"/>
+      <c r="B400" s="5"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="6"/>
+      <c r="B401" s="5"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="6"/>
+      <c r="B402" s="5"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" s="6"/>
+      <c r="B403" s="5"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="6"/>
+      <c r="B404" s="5"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="6"/>
+      <c r="B405" s="5"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="6"/>
+      <c r="B406" s="5"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="6"/>
+      <c r="B407" s="5"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="6"/>
+      <c r="B408" s="5"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="6"/>
+      <c r="B409" s="5"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="6"/>
+      <c r="B410" s="5"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="6"/>
+      <c r="B411" s="5"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="6"/>
+      <c r="B412" s="5"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="6"/>
+      <c r="B413" s="5"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="6"/>
+      <c r="B414" s="5"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="6"/>
+      <c r="B415" s="5"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="6"/>
+      <c r="B416" s="5"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="6"/>
+      <c r="B417" s="5"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="6"/>
+      <c r="B418" s="5"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="6"/>
+      <c r="B419" s="5"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B420" s="6"/>
+      <c r="B420" s="5"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="6"/>
+      <c r="B421" s="5"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="6"/>
+      <c r="B422" s="5"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="6"/>
+      <c r="B423" s="5"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="6"/>
+      <c r="B424" s="5"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B425" s="6"/>
+      <c r="B425" s="5"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="6"/>
+      <c r="B426" s="5"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="6"/>
+      <c r="B427" s="5"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="6"/>
+      <c r="B428" s="5"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B429" s="6"/>
+      <c r="B429" s="5"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="6"/>
+      <c r="B430" s="5"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="6"/>
+      <c r="B431" s="5"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="6"/>
+      <c r="B432" s="5"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="6"/>
+      <c r="B433" s="5"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="6"/>
+      <c r="B434" s="5"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="6"/>
+      <c r="B435" s="5"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B436" s="6"/>
+      <c r="B436" s="5"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="6"/>
+      <c r="B437" s="5"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="6"/>
+      <c r="B438" s="5"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="6"/>
+      <c r="B439" s="5"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="6"/>
+      <c r="B440" s="5"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="6"/>
+      <c r="B441" s="5"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B442" s="6"/>
+      <c r="B442" s="5"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B443" s="6"/>
+      <c r="B443" s="5"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="6"/>
+      <c r="B444" s="5"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="6"/>
+      <c r="B445" s="5"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B446" s="6"/>
+      <c r="B446" s="5"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B447" s="6"/>
+      <c r="B447" s="5"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="6"/>
+      <c r="B448" s="5"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="6"/>
+      <c r="B449" s="5"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="6"/>
+      <c r="B450" s="5"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B451" s="6"/>
+      <c r="B451" s="5"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B452" s="6"/>
+      <c r="B452" s="5"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B453" s="6"/>
+      <c r="B453" s="5"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="6"/>
+      <c r="B454" s="5"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="6"/>
+      <c r="B455" s="5"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B456" s="6"/>
+      <c r="B456" s="5"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B457" s="6"/>
+      <c r="B457" s="5"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B458" s="6"/>
+      <c r="B458" s="5"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B459" s="6"/>
+      <c r="B459" s="5"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="6"/>
+      <c r="B460" s="5"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="6"/>
+      <c r="B461" s="5"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="6"/>
+      <c r="B462" s="5"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="6"/>
+      <c r="B463" s="5"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="6"/>
+      <c r="B464" s="5"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="6"/>
+      <c r="B465" s="5"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="6"/>
+      <c r="B466" s="5"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="6"/>
+      <c r="B467" s="5"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="6"/>
+      <c r="B468" s="5"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="6"/>
+      <c r="B469" s="5"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B470" s="6"/>
+      <c r="B470" s="5"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="6"/>
+      <c r="B471" s="5"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="6"/>
+      <c r="B472" s="5"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="6"/>
+      <c r="B473" s="5"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="6"/>
+      <c r="B474" s="5"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="6"/>
+      <c r="B475" s="5"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="6"/>
+      <c r="B476" s="5"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="6"/>
+      <c r="B477" s="5"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="6"/>
+      <c r="B478" s="5"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="6"/>
+      <c r="B479" s="5"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B480" s="6"/>
+      <c r="B480" s="5"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B481" s="6"/>
+      <c r="B481" s="5"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B482" s="6"/>
+      <c r="B482" s="5"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="6"/>
+      <c r="B483" s="5"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B484" s="6"/>
+      <c r="B484" s="5"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="6"/>
+      <c r="B485" s="5"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B486" s="6"/>
+      <c r="B486" s="5"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B487" s="6"/>
+      <c r="B487" s="5"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B488" s="6"/>
+      <c r="B488" s="5"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B489" s="6"/>
+      <c r="B489" s="5"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="6"/>
+      <c r="B490" s="5"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="6"/>
+      <c r="B491" s="5"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="6"/>
+      <c r="B492" s="5"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="6"/>
+      <c r="B493" s="5"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B494" s="6"/>
+      <c r="B494" s="5"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B495" s="6"/>
+      <c r="B495" s="5"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="6"/>
+      <c r="B496" s="5"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="6"/>
+      <c r="B497" s="5"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B498" s="6"/>
+      <c r="B498" s="5"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B499" s="6"/>
+      <c r="B499" s="5"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B500" s="6"/>
+      <c r="B500" s="5"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B501" s="6"/>
+      <c r="B501" s="5"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B502" s="6"/>
+      <c r="B502" s="5"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B503" s="6"/>
+      <c r="B503" s="5"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="6"/>
+      <c r="B504" s="5"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B505" s="6"/>
+      <c r="B505" s="5"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="6"/>
+      <c r="B506" s="5"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B507" s="6"/>
+      <c r="B507" s="5"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B508" s="6"/>
+      <c r="B508" s="5"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="6"/>
+      <c r="B509" s="5"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B510" s="6"/>
+      <c r="B510" s="5"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="6"/>
+      <c r="B511" s="5"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B512" s="6"/>
+      <c r="B512" s="5"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="6"/>
+      <c r="B513" s="5"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B514" s="6"/>
+      <c r="B514" s="5"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B515" s="6"/>
+      <c r="B515" s="5"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B516" s="6"/>
+      <c r="B516" s="5"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B517" s="6"/>
+      <c r="B517" s="5"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="6"/>
+      <c r="B518" s="5"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B519" s="6"/>
+      <c r="B519" s="5"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B520" s="6"/>
+      <c r="B520" s="5"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B521" s="6"/>
+      <c r="B521" s="5"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B522" s="6"/>
+      <c r="B522" s="5"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B523" s="6"/>
+      <c r="B523" s="5"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="6"/>
+      <c r="B524" s="5"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="6"/>
+      <c r="B525" s="5"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B526" s="6"/>
+      <c r="B526" s="5"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B527" s="6"/>
+      <c r="B527" s="5"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B528" s="6"/>
+      <c r="B528" s="5"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B529" s="6"/>
+      <c r="B529" s="5"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="6"/>
+      <c r="B530" s="5"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="6"/>
+      <c r="B531" s="5"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B532" s="6"/>
+      <c r="B532" s="5"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="6"/>
+      <c r="B533" s="5"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B534" s="6"/>
+      <c r="B534" s="5"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B535" s="6"/>
+      <c r="B535" s="5"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B536" s="6"/>
+      <c r="B536" s="5"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B537" s="6"/>
+      <c r="B537" s="5"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B538" s="6"/>
+      <c r="B538" s="5"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="6"/>
+      <c r="B539" s="5"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="6"/>
+      <c r="B540" s="5"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B541" s="6"/>
+      <c r="B541" s="5"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B542" s="6"/>
+      <c r="B542" s="5"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B543" s="6"/>
+      <c r="B543" s="5"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B544" s="6"/>
+      <c r="B544" s="5"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B545" s="6"/>
+      <c r="B545" s="5"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B546" s="6"/>
+      <c r="B546" s="5"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="6"/>
+      <c r="B547" s="5"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B548" s="6"/>
+      <c r="B548" s="5"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="6"/>
+      <c r="B549" s="5"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B550" s="6"/>
+      <c r="B550" s="5"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B551" s="6"/>
+      <c r="B551" s="5"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B552" s="6"/>
+      <c r="B552" s="5"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B553" s="6"/>
+      <c r="B553" s="5"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B554" s="6"/>
+      <c r="B554" s="5"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B555" s="6"/>
+      <c r="B555" s="5"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B556" s="6"/>
+      <c r="B556" s="5"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B557" s="6"/>
+      <c r="B557" s="5"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B558" s="6"/>
+      <c r="B558" s="5"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B559" s="6"/>
+      <c r="B559" s="5"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B560" s="6"/>
+      <c r="B560" s="5"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B561" s="6"/>
+      <c r="B561" s="5"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B562" s="6"/>
+      <c r="B562" s="5"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B563" s="6"/>
+      <c r="B563" s="5"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B564" s="6"/>
+      <c r="B564" s="5"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B565" s="6"/>
+      <c r="B565" s="5"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B566" s="6"/>
+      <c r="B566" s="5"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B567" s="6"/>
+      <c r="B567" s="5"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="6"/>
+      <c r="B568" s="5"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="6"/>
+      <c r="B569" s="5"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="6"/>
+      <c r="B570" s="5"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B571" s="6"/>
+      <c r="B571" s="5"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="6"/>
+      <c r="B572" s="5"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B573" s="6"/>
+      <c r="B573" s="5"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B574" s="6"/>
+      <c r="B574" s="5"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B575" s="6"/>
+      <c r="B575" s="5"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B576" s="6"/>
+      <c r="B576" s="5"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="6"/>
+      <c r="B577" s="5"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B578" s="6"/>
+      <c r="B578" s="5"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B579" s="6"/>
+      <c r="B579" s="5"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B580" s="6"/>
+      <c r="B580" s="5"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B581" s="6"/>
+      <c r="B581" s="5"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B582" s="6"/>
+      <c r="B582" s="5"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B583" s="6"/>
+      <c r="B583" s="5"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B584" s="6"/>
+      <c r="B584" s="5"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B585" s="6"/>
+      <c r="B585" s="5"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B586" s="6"/>
+      <c r="B586" s="5"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B587" s="6"/>
+      <c r="B587" s="5"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B588" s="6"/>
+      <c r="B588" s="5"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B589" s="6"/>
+      <c r="B589" s="5"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B590" s="6"/>
+      <c r="B590" s="5"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B591" s="6"/>
+      <c r="B591" s="5"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B592" s="6"/>
+      <c r="B592" s="5"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B593" s="6"/>
+      <c r="B593" s="5"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B594" s="6"/>
+      <c r="B594" s="5"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B595" s="6"/>
+      <c r="B595" s="5"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B596" s="6"/>
+      <c r="B596" s="5"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B597" s="6"/>
+      <c r="B597" s="5"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B598" s="6"/>
+      <c r="B598" s="5"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B599" s="6"/>
+      <c r="B599" s="5"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="6"/>
+      <c r="B600" s="5"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B601" s="6"/>
+      <c r="B601" s="5"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B602" s="6"/>
+      <c r="B602" s="5"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B603" s="6"/>
+      <c r="B603" s="5"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B604" s="6"/>
+      <c r="B604" s="5"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B605" s="6"/>
+      <c r="B605" s="5"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B606" s="6"/>
+      <c r="B606" s="5"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B607" s="6"/>
+      <c r="B607" s="5"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B608" s="6"/>
+      <c r="B608" s="5"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B609" s="6"/>
+      <c r="B609" s="5"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B610" s="6"/>
+      <c r="B610" s="5"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B611" s="6"/>
+      <c r="B611" s="5"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B612" s="6"/>
+      <c r="B612" s="5"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B613" s="6"/>
+      <c r="B613" s="5"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B614" s="6"/>
+      <c r="B614" s="5"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B615" s="6"/>
+      <c r="B615" s="5"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B616" s="6"/>
+      <c r="B616" s="5"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B617" s="6"/>
+      <c r="B617" s="5"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B618" s="6"/>
+      <c r="B618" s="5"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B619" s="6"/>
+      <c r="B619" s="5"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B620" s="6"/>
+      <c r="B620" s="5"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B621" s="6"/>
+      <c r="B621" s="5"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B622" s="6"/>
+      <c r="B622" s="5"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B623" s="6"/>
+      <c r="B623" s="5"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B624" s="6"/>
+      <c r="B624" s="5"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B625" s="6"/>
+      <c r="B625" s="5"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B626" s="6"/>
+      <c r="B626" s="5"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B627" s="6"/>
+      <c r="B627" s="5"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B628" s="6"/>
+      <c r="B628" s="5"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B629" s="6"/>
+      <c r="B629" s="5"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B630" s="6"/>
+      <c r="B630" s="5"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B631" s="6"/>
+      <c r="B631" s="5"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B632" s="6"/>
+      <c r="B632" s="5"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B633" s="6"/>
+      <c r="B633" s="5"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B634" s="6"/>
+      <c r="B634" s="5"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B635" s="6"/>
+      <c r="B635" s="5"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B636" s="6"/>
+      <c r="B636" s="5"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="6"/>
+      <c r="B637" s="5"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B638" s="6"/>
+      <c r="B638" s="5"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B639" s="6"/>
+      <c r="B639" s="5"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B640" s="6"/>
+      <c r="B640" s="5"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B641" s="6"/>
+      <c r="B641" s="5"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B642" s="6"/>
+      <c r="B642" s="5"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B643" s="6"/>
+      <c r="B643" s="5"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B644" s="6"/>
+      <c r="B644" s="5"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B645" s="6"/>
+      <c r="B645" s="5"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B646" s="6"/>
+      <c r="B646" s="5"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B647" s="6"/>
+      <c r="B647" s="5"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="6"/>
+      <c r="B648" s="5"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="6"/>
+      <c r="B649" s="5"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B650" s="6"/>
+      <c r="B650" s="5"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B651" s="6"/>
+      <c r="B651" s="5"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B652" s="6"/>
+      <c r="B652" s="5"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B653" s="6"/>
+      <c r="B653" s="5"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B654" s="6"/>
+      <c r="B654" s="5"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B655" s="6"/>
+      <c r="B655" s="5"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B656" s="6"/>
+      <c r="B656" s="5"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B657" s="6"/>
+      <c r="B657" s="5"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B658" s="6"/>
+      <c r="B658" s="5"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B659" s="6"/>
+      <c r="B659" s="5"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B660" s="6"/>
+      <c r="B660" s="5"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B661" s="6"/>
+      <c r="B661" s="5"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B662" s="6"/>
+      <c r="B662" s="5"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B663" s="6"/>
+      <c r="B663" s="5"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B664" s="6"/>
+      <c r="B664" s="5"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B665" s="6"/>
+      <c r="B665" s="5"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B666" s="6"/>
+      <c r="B666" s="5"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B667" s="6"/>
+      <c r="B667" s="5"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B668" s="6"/>
+      <c r="B668" s="5"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B669" s="6"/>
+      <c r="B669" s="5"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B670" s="6"/>
+      <c r="B670" s="5"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B671" s="6"/>
+      <c r="B671" s="5"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B672" s="6"/>
+      <c r="B672" s="5"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B673" s="6"/>
+      <c r="B673" s="5"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B674" s="6"/>
+      <c r="B674" s="5"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="6"/>
+      <c r="B675" s="5"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B676" s="6"/>
+      <c r="B676" s="5"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B677" s="6"/>
+      <c r="B677" s="5"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B678" s="6"/>
+      <c r="B678" s="5"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B679" s="6"/>
+      <c r="B679" s="5"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B680" s="6"/>
+      <c r="B680" s="5"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B681" s="6"/>
+      <c r="B681" s="5"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B682" s="6"/>
+      <c r="B682" s="5"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B683" s="6"/>
+      <c r="B683" s="5"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B684" s="6"/>
+      <c r="B684" s="5"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B685" s="6"/>
+      <c r="B685" s="5"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B686" s="6"/>
+      <c r="B686" s="5"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B687" s="6"/>
+      <c r="B687" s="5"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B688" s="6"/>
+      <c r="B688" s="5"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B689" s="6"/>
+      <c r="B689" s="5"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B690" s="6"/>
+      <c r="B690" s="5"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B691" s="6"/>
+      <c r="B691" s="5"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B692" s="6"/>
+      <c r="B692" s="5"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B693" s="6"/>
+      <c r="B693" s="5"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B694" s="6"/>
+      <c r="B694" s="5"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B695" s="6"/>
+      <c r="B695" s="5"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B696" s="6"/>
+      <c r="B696" s="5"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B697" s="6"/>
+      <c r="B697" s="5"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B698" s="6"/>
+      <c r="B698" s="5"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B699" s="6"/>
+      <c r="B699" s="5"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B700" s="6"/>
+      <c r="B700" s="5"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B701" s="6"/>
+      <c r="B701" s="5"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B702" s="6"/>
+      <c r="B702" s="5"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B703" s="6"/>
+      <c r="B703" s="5"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="6"/>
+      <c r="B704" s="5"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="6"/>
+      <c r="B705" s="5"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B706" s="6"/>
+      <c r="B706" s="5"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B707" s="6"/>
+      <c r="B707" s="5"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B708" s="6"/>
+      <c r="B708" s="5"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B709" s="6"/>
+      <c r="B709" s="5"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B710" s="6"/>
+      <c r="B710" s="5"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B711" s="6"/>
+      <c r="B711" s="5"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="6"/>
+      <c r="B712" s="5"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="6"/>
+      <c r="B713" s="5"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="6"/>
+      <c r="B714" s="5"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B715" s="6"/>
+      <c r="B715" s="5"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B716" s="6"/>
+      <c r="B716" s="5"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B717" s="6"/>
+      <c r="B717" s="5"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B718" s="6"/>
+      <c r="B718" s="5"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B719" s="6"/>
+      <c r="B719" s="5"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B720" s="6"/>
+      <c r="B720" s="5"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="6"/>
+      <c r="B721" s="5"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B722" s="6"/>
+      <c r="B722" s="5"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B723" s="6"/>
+      <c r="B723" s="5"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B724" s="6"/>
+      <c r="B724" s="5"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="6"/>
+      <c r="B725" s="5"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="6"/>
+      <c r="B726" s="5"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="6"/>
+      <c r="B727" s="5"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B728" s="6"/>
+      <c r="B728" s="5"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B729" s="6"/>
+      <c r="B729" s="5"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B730" s="6"/>
+      <c r="B730" s="5"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B731" s="6"/>
+      <c r="B731" s="5"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B732" s="6"/>
+      <c r="B732" s="5"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B733" s="6"/>
+      <c r="B733" s="5"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B734" s="6"/>
+      <c r="B734" s="5"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B735" s="6"/>
+      <c r="B735" s="5"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B736" s="6"/>
+      <c r="B736" s="5"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B737" s="6"/>
+      <c r="B737" s="5"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B738" s="6"/>
+      <c r="B738" s="5"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B739" s="6"/>
+      <c r="B739" s="5"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B740" s="6"/>
+      <c r="B740" s="5"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="6"/>
+      <c r="B741" s="5"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B742" s="6"/>
+      <c r="B742" s="5"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B743" s="6"/>
+      <c r="B743" s="5"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B744" s="6"/>
+      <c r="B744" s="5"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B745" s="6"/>
+      <c r="B745" s="5"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B746" s="6"/>
+      <c r="B746" s="5"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B747" s="6"/>
+      <c r="B747" s="5"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B748" s="6"/>
+      <c r="B748" s="5"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B749" s="6"/>
+      <c r="B749" s="5"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B750" s="6"/>
+      <c r="B750" s="5"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B751" s="6"/>
+      <c r="B751" s="5"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B752" s="6"/>
+      <c r="B752" s="5"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B753" s="6"/>
+      <c r="B753" s="5"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B754" s="6"/>
+      <c r="B754" s="5"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B755" s="6"/>
+      <c r="B755" s="5"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B756" s="6"/>
+      <c r="B756" s="5"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B757" s="6"/>
+      <c r="B757" s="5"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B758" s="6"/>
+      <c r="B758" s="5"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B759" s="6"/>
+      <c r="B759" s="5"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B760" s="6"/>
+      <c r="B760" s="5"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B761" s="6"/>
+      <c r="B761" s="5"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B762" s="6"/>
+      <c r="B762" s="5"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B763" s="6"/>
+      <c r="B763" s="5"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B764" s="6"/>
+      <c r="B764" s="5"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B765" s="6"/>
+      <c r="B765" s="5"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B766" s="6"/>
+      <c r="B766" s="5"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B767" s="6"/>
+      <c r="B767" s="5"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B768" s="6"/>
+      <c r="B768" s="5"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B769" s="6"/>
+      <c r="B769" s="5"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B770" s="6"/>
+      <c r="B770" s="5"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B771" s="6"/>
+      <c r="B771" s="5"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B772" s="6"/>
+      <c r="B772" s="5"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B773" s="6"/>
+      <c r="B773" s="5"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B774" s="6"/>
+      <c r="B774" s="5"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B775" s="6"/>
+      <c r="B775" s="5"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B776" s="6"/>
+      <c r="B776" s="5"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B777" s="6"/>
+      <c r="B777" s="5"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B778" s="6"/>
+      <c r="B778" s="5"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B779" s="6"/>
+      <c r="B779" s="5"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B780" s="6"/>
+      <c r="B780" s="5"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B781" s="6"/>
+      <c r="B781" s="5"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="6"/>
+      <c r="B782" s="5"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B783" s="6"/>
+      <c r="B783" s="5"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B784" s="6"/>
+      <c r="B784" s="5"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B785" s="6"/>
+      <c r="B785" s="5"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B786" s="6"/>
+      <c r="B786" s="5"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B787" s="6"/>
+      <c r="B787" s="5"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B788" s="6"/>
+      <c r="B788" s="5"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B789" s="6"/>
+      <c r="B789" s="5"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B790" s="6"/>
+      <c r="B790" s="5"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B791" s="6"/>
+      <c r="B791" s="5"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B792" s="6"/>
+      <c r="B792" s="5"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B793" s="6"/>
+      <c r="B793" s="5"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B794" s="6"/>
+      <c r="B794" s="5"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B795" s="6"/>
+      <c r="B795" s="5"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B796" s="6"/>
+      <c r="B796" s="5"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B797" s="6"/>
+      <c r="B797" s="5"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B798" s="6"/>
+      <c r="B798" s="5"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B799" s="6"/>
+      <c r="B799" s="5"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B800" s="6"/>
+      <c r="B800" s="5"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B801" s="6"/>
+      <c r="B801" s="5"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B802" s="6"/>
+      <c r="B802" s="5"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B803" s="6"/>
+      <c r="B803" s="5"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B804" s="6"/>
+      <c r="B804" s="5"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B805" s="6"/>
+      <c r="B805" s="5"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B806" s="6"/>
+      <c r="B806" s="5"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B807" s="6"/>
+      <c r="B807" s="5"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B808" s="6"/>
+      <c r="B808" s="5"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B809" s="6"/>
+      <c r="B809" s="5"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B810" s="6"/>
+      <c r="B810" s="5"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B811" s="6"/>
+      <c r="B811" s="5"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B812" s="6"/>
+      <c r="B812" s="5"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B813" s="6"/>
+      <c r="B813" s="5"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B814" s="6"/>
+      <c r="B814" s="5"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B815" s="6"/>
+      <c r="B815" s="5"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B816" s="6"/>
+      <c r="B816" s="5"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B817" s="6"/>
+      <c r="B817" s="5"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B818" s="6"/>
+      <c r="B818" s="5"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B819" s="6"/>
+      <c r="B819" s="5"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B820" s="6"/>
+      <c r="B820" s="5"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B821" s="6"/>
+      <c r="B821" s="5"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B822" s="6"/>
+      <c r="B822" s="5"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B823" s="6"/>
+      <c r="B823" s="5"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B824" s="6"/>
+      <c r="B824" s="5"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B825" s="6"/>
+      <c r="B825" s="5"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B826" s="6"/>
+      <c r="B826" s="5"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B827" s="6"/>
+      <c r="B827" s="5"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B828" s="6"/>
+      <c r="B828" s="5"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B829" s="6"/>
+      <c r="B829" s="5"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B830" s="6"/>
+      <c r="B830" s="5"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B831" s="6"/>
+      <c r="B831" s="5"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B832" s="6"/>
+      <c r="B832" s="5"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B833" s="6"/>
+      <c r="B833" s="5"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B834" s="6"/>
+      <c r="B834" s="5"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B835" s="6"/>
+      <c r="B835" s="5"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B836" s="6"/>
+      <c r="B836" s="5"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B837" s="6"/>
+      <c r="B837" s="5"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B838" s="6"/>
+      <c r="B838" s="5"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B839" s="6"/>
+      <c r="B839" s="5"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B840" s="6"/>
+      <c r="B840" s="5"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B841" s="6"/>
+      <c r="B841" s="5"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B842" s="6"/>
+      <c r="B842" s="5"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B843" s="6"/>
+      <c r="B843" s="5"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B844" s="6"/>
+      <c r="B844" s="5"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B845" s="6"/>
+      <c r="B845" s="5"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B846" s="6"/>
+      <c r="B846" s="5"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B847" s="6"/>
+      <c r="B847" s="5"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B848" s="6"/>
+      <c r="B848" s="5"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B849" s="6"/>
+      <c r="B849" s="5"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B850" s="6"/>
+      <c r="B850" s="5"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B851" s="6"/>
+      <c r="B851" s="5"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B852" s="6"/>
+      <c r="B852" s="5"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B853" s="6"/>
+      <c r="B853" s="5"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B854" s="6"/>
+      <c r="B854" s="5"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B855" s="6"/>
+      <c r="B855" s="5"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B856" s="6"/>
+      <c r="B856" s="5"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B857" s="6"/>
+      <c r="B857" s="5"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B858" s="6"/>
+      <c r="B858" s="5"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B859" s="6"/>
+      <c r="B859" s="5"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B860" s="6"/>
+      <c r="B860" s="5"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B861" s="6"/>
+      <c r="B861" s="5"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B862" s="6"/>
+      <c r="B862" s="5"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B863" s="6"/>
+      <c r="B863" s="5"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B864" s="6"/>
+      <c r="B864" s="5"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B865" s="6"/>
+      <c r="B865" s="5"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B866" s="6"/>
+      <c r="B866" s="5"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B867" s="6"/>
+      <c r="B867" s="5"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B868" s="6"/>
+      <c r="B868" s="5"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B869" s="6"/>
+      <c r="B869" s="5"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B870" s="6"/>
+      <c r="B870" s="5"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B871" s="6"/>
+      <c r="B871" s="5"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B872" s="6"/>
+      <c r="B872" s="5"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B873" s="6"/>
+      <c r="B873" s="5"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B874" s="6"/>
+      <c r="B874" s="5"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B875" s="6"/>
+      <c r="B875" s="5"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B876" s="6"/>
+      <c r="B876" s="5"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B877" s="6"/>
+      <c r="B877" s="5"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B878" s="6"/>
+      <c r="B878" s="5"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B879" s="6"/>
+      <c r="B879" s="5"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B880" s="6"/>
+      <c r="B880" s="5"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B881" s="6"/>
+      <c r="B881" s="5"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B882" s="6"/>
+      <c r="B882" s="5"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B883" s="6"/>
+      <c r="B883" s="5"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B884" s="6"/>
+      <c r="B884" s="5"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B885" s="6"/>
+      <c r="B885" s="5"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B886" s="6"/>
+      <c r="B886" s="5"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="6"/>
+      <c r="B887" s="5"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B888" s="6"/>
+      <c r="B888" s="5"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B889" s="6"/>
+      <c r="B889" s="5"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B890" s="6"/>
+      <c r="B890" s="5"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B891" s="6"/>
+      <c r="B891" s="5"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B892" s="6"/>
+      <c r="B892" s="5"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B893" s="6"/>
+      <c r="B893" s="5"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B894" s="6"/>
+      <c r="B894" s="5"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B895" s="6"/>
+      <c r="B895" s="5"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B896" s="6"/>
+      <c r="B896" s="5"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B897" s="6"/>
+      <c r="B897" s="5"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B898" s="6"/>
+      <c r="B898" s="5"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B899" s="6"/>
+      <c r="B899" s="5"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B900" s="6"/>
+      <c r="B900" s="5"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B901" s="6"/>
+      <c r="B901" s="5"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B902" s="6"/>
+      <c r="B902" s="5"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B903" s="6"/>
+      <c r="B903" s="5"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B904" s="6"/>
+      <c r="B904" s="5"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B905" s="6"/>
+      <c r="B905" s="5"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B906" s="6"/>
+      <c r="B906" s="5"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B907" s="6"/>
+      <c r="B907" s="5"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B908" s="6"/>
+      <c r="B908" s="5"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B909" s="6"/>
+      <c r="B909" s="5"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B910" s="6"/>
+      <c r="B910" s="5"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B911" s="6"/>
+      <c r="B911" s="5"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B912" s="6"/>
+      <c r="B912" s="5"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B913" s="6"/>
+      <c r="B913" s="5"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B914" s="6"/>
+      <c r="B914" s="5"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B915" s="6"/>
+      <c r="B915" s="5"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B916" s="6"/>
+      <c r="B916" s="5"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B917" s="6"/>
+      <c r="B917" s="5"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B918" s="6"/>
+      <c r="B918" s="5"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B919" s="6"/>
+      <c r="B919" s="5"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B920" s="6"/>
+      <c r="B920" s="5"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B921" s="6"/>
+      <c r="B921" s="5"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B922" s="6"/>
+      <c r="B922" s="5"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B923" s="6"/>
+      <c r="B923" s="5"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B924" s="6"/>
+      <c r="B924" s="5"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B925" s="6"/>
+      <c r="B925" s="5"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B926" s="6"/>
+      <c r="B926" s="5"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B927" s="6"/>
+      <c r="B927" s="5"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B928" s="6"/>
+      <c r="B928" s="5"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B929" s="6"/>
+      <c r="B929" s="5"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B930" s="6"/>
+      <c r="B930" s="5"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B931" s="6"/>
+      <c r="B931" s="5"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B932" s="6"/>
+      <c r="B932" s="5"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B933" s="6"/>
+      <c r="B933" s="5"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B934" s="6"/>
+      <c r="B934" s="5"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B935" s="6"/>
+      <c r="B935" s="5"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B936" s="6"/>
+      <c r="B936" s="5"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B937" s="6"/>
+      <c r="B937" s="5"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B938" s="6"/>
+      <c r="B938" s="5"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B939" s="6"/>
+      <c r="B939" s="5"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B940" s="6"/>
+      <c r="B940" s="5"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B941" s="6"/>
+      <c r="B941" s="5"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B942" s="6"/>
+      <c r="B942" s="5"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B943" s="6"/>
+      <c r="B943" s="5"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B944" s="6"/>
+      <c r="B944" s="5"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B945" s="6"/>
+      <c r="B945" s="5"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B946" s="6"/>
+      <c r="B946" s="5"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B947" s="6"/>
+      <c r="B947" s="5"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B948" s="6"/>
+      <c r="B948" s="5"/>
     </row>
     <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B949" s="6"/>
+      <c r="B949" s="5"/>
     </row>
     <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B950" s="6"/>
+      <c r="B950" s="5"/>
     </row>
     <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B951" s="6"/>
+      <c r="B951" s="5"/>
     </row>
     <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B952" s="6"/>
+      <c r="B952" s="5"/>
     </row>
     <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B953" s="6"/>
+      <c r="B953" s="5"/>
     </row>
     <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B954" s="6"/>
+      <c r="B954" s="5"/>
     </row>
     <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B955" s="6"/>
+      <c r="B955" s="5"/>
     </row>
     <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B956" s="6"/>
+      <c r="B956" s="5"/>
     </row>
     <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B957" s="6"/>
+      <c r="B957" s="5"/>
     </row>
     <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B958" s="6"/>
+      <c r="B958" s="5"/>
     </row>
     <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B959" s="6"/>
+      <c r="B959" s="5"/>
     </row>
     <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B960" s="6"/>
+      <c r="B960" s="5"/>
     </row>
     <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B961" s="6"/>
+      <c r="B961" s="5"/>
     </row>
     <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B962" s="6"/>
+      <c r="B962" s="5"/>
     </row>
     <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B963" s="6"/>
+      <c r="B963" s="5"/>
     </row>
     <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B964" s="6"/>
+      <c r="B964" s="5"/>
     </row>
     <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B965" s="6"/>
+      <c r="B965" s="5"/>
     </row>
     <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B966" s="6"/>
+      <c r="B966" s="5"/>
     </row>
     <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B967" s="6"/>
+      <c r="B967" s="5"/>
     </row>
     <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B968" s="6"/>
+      <c r="B968" s="5"/>
     </row>
     <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B969" s="6"/>
+      <c r="B969" s="5"/>
     </row>
     <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B970" s="6"/>
+      <c r="B970" s="5"/>
     </row>
     <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B971" s="6"/>
+      <c r="B971" s="5"/>
     </row>
     <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B972" s="6"/>
+      <c r="B972" s="5"/>
     </row>
     <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B973" s="6"/>
+      <c r="B973" s="5"/>
     </row>
     <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B974" s="6"/>
+      <c r="B974" s="5"/>
     </row>
     <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B975" s="6"/>
+      <c r="B975" s="5"/>
     </row>
     <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B976" s="6"/>
+      <c r="B976" s="5"/>
     </row>
     <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B977" s="6"/>
+      <c r="B977" s="5"/>
     </row>
     <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B978" s="6"/>
+      <c r="B978" s="5"/>
     </row>
     <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B979" s="6"/>
+      <c r="B979" s="5"/>
     </row>
     <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B980" s="6"/>
+      <c r="B980" s="5"/>
     </row>
     <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B981" s="6"/>
+      <c r="B981" s="5"/>
     </row>
     <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B982" s="6"/>
+      <c r="B982" s="5"/>
     </row>
     <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B983" s="6"/>
+      <c r="B983" s="5"/>
     </row>
     <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B984" s="6"/>
+      <c r="B984" s="5"/>
     </row>
     <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B985" s="6"/>
+      <c r="B985" s="5"/>
     </row>
     <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B986" s="6"/>
+      <c r="B986" s="5"/>
     </row>
     <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B987" s="6"/>
+      <c r="B987" s="5"/>
     </row>
     <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B988" s="6"/>
+      <c r="B988" s="5"/>
     </row>
     <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B989" s="6"/>
+      <c r="B989" s="5"/>
     </row>
     <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B990" s="6"/>
+      <c r="B990" s="5"/>
     </row>
     <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B991" s="6"/>
+      <c r="B991" s="5"/>
     </row>
     <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B992" s="6"/>
+      <c r="B992" s="5"/>
     </row>
     <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B993" s="6"/>
+      <c r="B993" s="5"/>
     </row>
     <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B994" s="6"/>
+      <c r="B994" s="5"/>
     </row>
     <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B995" s="6"/>
-    </row>
-    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B996" s="6"/>
-    </row>
-    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B997" s="6"/>
-    </row>
-    <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B998" s="6"/>
-    </row>
-    <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B999" s="6"/>
+      <c r="B995" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3914,7 +4136,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3931,823 +4153,823 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G2" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="D6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H6" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>136</v>
+      <c r="H27" s="58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="66"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="66"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5746,9 +5968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B95BE3E-9FA9-49A8-AEB4-CFE36FFF08EE}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5763,414 +5983,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="F3" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="F4" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="F5" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="39"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="39"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="39"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="39"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="39"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="39"/>
+      <c r="A26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="39"/>
+      <c r="A27" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7164,7 +7384,7 @@
   <dimension ref="B2:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7177,84 +7397,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="D7" s="71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="65"/>
+      <c r="C8" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="65"/>
+      <c r="C9" s="68" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="65"/>
+    </row>
+    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="66"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
